--- a/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
+++ b/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7270E57-1BBF-4F73-9425-B4134DEA62D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2B86C4-C56B-47D2-9C31-0A24E0C89F5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,20 +583,20 @@
         <v>5</v>
       </c>
       <c r="D5" s="9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="10">
         <f xml:space="preserve"> D5 - B5- F5</f>
-        <v>-9</v>
+        <v>5.5</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>5</v>
@@ -611,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>5</v>
@@ -630,7 +630,7 @@
       </c>
       <c r="H6" s="10">
         <f xml:space="preserve"> D6 - B6 - F6</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>5</v>
@@ -1190,28 +1190,28 @@
       </c>
       <c r="B23" s="5">
         <f>B4 + B5 + B6 + B7 + B8 + B9 + B11 + B12 + B13 + B14 + B15 + B16 + B17 + B18 + B19 + B20 + B21 + B22</f>
-        <v>19.5</v>
+        <v>28.5</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>13.5</v>
+        <v>29.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="5">
         <f>F4 + F5 + F6 + F7 + F8 + F9 + F10 + F11 + F12 + F13 + F14+ F15 + F16 + F17 + F18 + F19 + F20 + F21 + F22</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>-6.5</v>
+        <v>-1</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
+++ b/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2B86C4-C56B-47D2-9C31-0A24E0C89F5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E13963-A2FF-4AC1-9805-C1BBD08D8184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,20 +617,20 @@
         <v>5</v>
       </c>
       <c r="D6" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="10">
         <f xml:space="preserve"> D6 - B6 - F6</f>
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>5</v>
@@ -1197,21 +1197,21 @@
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>29.5</v>
+        <v>44.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="5">
         <f>F4 + F5 + F6 + F7 + F8 + F9 + F10 + F11 + F12 + F13 + F14+ F15 + F16 + F17 + F18 + F19 + F20 + F21 + F22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
+++ b/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E13963-A2FF-4AC1-9805-C1BBD08D8184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F74F6C2-4C91-444C-A837-1B33E11C5BF7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,26 +645,26 @@
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="10">
         <f xml:space="preserve"> D7 - B7 - F7</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>5</v>
@@ -1190,28 +1190,28 @@
       </c>
       <c r="B23" s="5">
         <f>B4 + B5 + B6 + B7 + B8 + B9 + B11 + B12 + B13 + B14 + B15 + B16 + B17 + B18 + B19 + B20 + B21 + B22</f>
-        <v>28.5</v>
+        <v>38.75</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>44.5</v>
+        <v>59.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="5">
         <f>F4 + F5 + F6 + F7 + F8 + F9 + F10 + F11 + F12 + F13 + F14+ F15 + F16 + F17 + F18 + F19 + F20 + F21 + F22</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>13</v>
+        <v>16.75</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
+++ b/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F74F6C2-4C91-444C-A837-1B33E11C5BF7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D87CDC0-E818-4410-B151-716834959A45}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="11">
   <si>
     <t>Tijd geëindigd</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Cihan Kurt</t>
+  </si>
+  <si>
+    <t>ziek</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,7 +706,9 @@
       <c r="I8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -713,26 +718,26 @@
         <v>9</v>
       </c>
       <c r="B9" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="10">
         <f xml:space="preserve"> D9- B9 - F9</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>5</v>
@@ -1190,28 +1195,28 @@
       </c>
       <c r="B23" s="5">
         <f>B4 + B5 + B6 + B7 + B8 + B9 + B11 + B12 + B13 + B14 + B15 + B16 + B17 + B18 + B19 + B20 + B21 + B22</f>
-        <v>38.75</v>
+        <v>47.75</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>59.5</v>
+        <v>74.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="5">
         <f>F4 + F5 + F6 + F7 + F8 + F9 + F10 + F11 + F12 + F13 + F14+ F15 + F16 + F17 + F18 + F19 + F20 + F21 + F22</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>16.75</v>
+        <v>21.75</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
+++ b/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D87CDC0-E818-4410-B151-716834959A45}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A014D489-CE83-48BC-99BB-BE67A412B0A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>5</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="H10" s="10">
         <f xml:space="preserve"> D10 - B10- F10</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>5</v>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>21.75</v>
+        <v>12.75</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
+++ b/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A014D489-CE83-48BC-99BB-BE67A412B0A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F46B79B-6192-4D8B-BC0D-89DA92DBD4F4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,20 +758,20 @@
         <v>5</v>
       </c>
       <c r="D10" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="10">
         <f xml:space="preserve"> D10 - B10- F10</f>
-        <v>-9</v>
+        <v>4.5</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>5</v>
@@ -1202,21 +1202,21 @@
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>74.5</v>
+        <v>88.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="5">
         <f>F4 + F5 + F6 + F7 + F8 + F9 + F10 + F11 + F12 + F13 + F14+ F15 + F16 + F17 + F18 + F19 + F20 + F21 + F22</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>12.75</v>
+        <v>26.25</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
+++ b/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F46B79B-6192-4D8B-BC0D-89DA92DBD4F4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAC0A43-5CA6-4460-9CAD-8911AA071631}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -474,7 +475,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>5</v>
@@ -798,14 +799,14 @@
         <v>5</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" ref="H11:H19" si="0" xml:space="preserve"> D11 - B11 - F11</f>
-        <v>0</v>
+        <v>-9.75</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>5</v>
@@ -1195,7 +1196,7 @@
       </c>
       <c r="B23" s="5">
         <f>B4 + B5 + B6 + B7 + B8 + B9 + B11 + B12 + B13 + B14 + B15 + B16 + B17 + B18 + B19 + B20 + B21 + B22</f>
-        <v>47.75</v>
+        <v>56.75</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
@@ -1209,14 +1210,14 @@
       </c>
       <c r="F23" s="5">
         <f>F4 + F5 + F6 + F7 + F8 + F9 + F10 + F11 + F12 + F13 + F14+ F15 + F16 + F17 + F18 + F19 + F20 + F21 + F22</f>
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>26.25</v>
+        <v>16.5</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
+++ b/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAC0A43-5CA6-4460-9CAD-8911AA071631}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C283D2A-9B4D-4D9C-A80E-6D645934F1F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,20 +793,20 @@
         <v>5</v>
       </c>
       <c r="D11" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" ref="H11:H19" si="0" xml:space="preserve"> D11 - B11 - F11</f>
-        <v>-9.75</v>
+        <v>4</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>5</v>
@@ -1203,21 +1203,21 @@
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>88.5</v>
+        <v>102.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="5">
         <f>F4 + F5 + F6 + F7 + F8 + F9 + F10 + F11 + F12 + F13 + F14+ F15 + F16 + F17 + F18 + F19 + F20 + F21 + F22</f>
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>16.5</v>
+        <v>30.25</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
+++ b/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C283D2A-9B4D-4D9C-A80E-6D645934F1F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647DED5-3602-4B37-A0B1-F2DF7BA09E58}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,7 +821,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>5</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>5</v>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B23" s="5">
         <f>B4 + B5 + B6 + B7 + B8 + B9 + B11 + B12 + B13 + B14 + B15 + B16 + B17 + B18 + B19 + B20 + B21 + B22</f>
-        <v>56.75</v>
+        <v>65.75</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>30.25</v>
+        <v>21.25</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
+++ b/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647DED5-3602-4B37-A0B1-F2DF7BA09E58}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A5465D-D3C7-47D5-92F8-73763B664927}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,20 +827,20 @@
         <v>5</v>
       </c>
       <c r="D12" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>4.75</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>5</v>
@@ -1203,21 +1203,21 @@
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>102.5</v>
+        <v>116.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="5">
         <f>F4 + F5 + F6 + F7 + F8 + F9 + F10 + F11 + F12 + F13 + F14+ F15 + F16 + F17 + F18 + F19 + F20 + F21 + F22</f>
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>21.25</v>
+        <v>35</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
+++ b/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A5465D-D3C7-47D5-92F8-73763B664927}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C353F1FB-9C91-4CFE-92AD-CBBF79362602}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="13">
   <si>
     <t>Tijd geëindigd</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>ziek</t>
+  </si>
+  <si>
+    <t>tandarts</t>
+  </si>
+  <si>
+    <t>Eerder stoppen vanwege deadline IRT</t>
   </si>
 </sst>
 </file>
@@ -475,7 +481,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,7 +679,9 @@
       <c r="I7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -855,26 +863,26 @@
         <v>13</v>
       </c>
       <c r="B13" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>5</v>
@@ -889,13 +897,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>5</v>
@@ -908,12 +916,14 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1196,28 +1206,28 @@
       </c>
       <c r="B23" s="5">
         <f>B4 + B5 + B6 + B7 + B8 + B9 + B11 + B12 + B13 + B14 + B15 + B16 + B17 + B18 + B19 + B20 + B21 + B22</f>
-        <v>65.75</v>
+        <v>83.75</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>116.5</v>
+        <v>142.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="5">
         <f>F4 + F5 + F6 + F7 + F8 + F9 + F10 + F11 + F12 + F13 + F14+ F15 + F16 + F17 + F18 + F19 + F20 + F21 + F22</f>
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>35</v>
+        <v>42.5</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
+++ b/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C353F1FB-9C91-4CFE-92AD-CBBF79362602}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D426794D-2F6A-45CF-930B-B9057CEAD9EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>tandarts</t>
   </si>
   <si>
-    <t>Eerder stoppen vanwege deadline IRT</t>
+    <t>Eerder stoppen vanwege deadline IRT geen pauze</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
+++ b/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D426794D-2F6A-45CF-930B-B9057CEAD9EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718934D4-52E8-4855-8407-A79EAA35DA2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
   <si>
     <t>Tijd geëindigd</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Eerder stoppen vanwege deadline IRT geen pauze</t>
+  </si>
+  <si>
+    <t>Vakantie</t>
+  </si>
+  <si>
+    <t>Stagegesprek Synopsys</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,7 +963,9 @@
       <c r="I15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -991,7 +999,9 @@
       <c r="I16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1001,13 +1011,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>5</v>
@@ -1020,12 +1030,14 @@
       </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1206,14 +1218,14 @@
       </c>
       <c r="B23" s="5">
         <f>B4 + B5 + B6 + B7 + B8 + B9 + B11 + B12 + B13 + B14 + B15 + B16 + B17 + B18 + B19 + B20 + B21 + B22</f>
-        <v>83.75</v>
+        <v>92.75</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>142.5</v>
+        <v>155.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
@@ -1227,7 +1239,7 @@
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>42.5</v>
+        <v>46.5</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
+++ b/Algemeen/Logboek/Logboek Cihan Kurt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718934D4-52E8-4855-8407-A79EAA35DA2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF535F41-104E-405E-B211-49F416E55BC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
